--- a/3000.xlsx
+++ b/3000.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16530" windowHeight="12660"/>
+    <workbookView windowWidth="14700" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -958,10 +958,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -1390,7 +1390,7 @@
       <c r="B1" s="1"/>
       <c r="C1">
         <f ca="1" t="shared" ref="C1:C35" si="0">RAND()</f>
-        <v>0.490737892171264</v>
+        <v>0.457114788096681</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1403,7 +1403,7 @@
       <c r="B2" s="1"/>
       <c r="C2">
         <f ca="1">RAND()</f>
-        <v>0.225924911774456</v>
+        <v>0.246589306880486</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -1416,7 +1416,7 @@
       <c r="B3" s="1"/>
       <c r="C3">
         <f ca="1">RAND()</f>
-        <v>0.852795481528943</v>
+        <v>0.0632052170771549</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1429,7 +1429,7 @@
       <c r="B4" s="1"/>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.882824639009735</v>
+        <v>0.646354883129655</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1442,7 +1442,7 @@
       <c r="B5" s="1"/>
       <c r="C5">
         <f ca="1">RAND()</f>
-        <v>0.256124738737302</v>
+        <v>0.578127012900537</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -1455,7 +1455,7 @@
       <c r="B6" s="1"/>
       <c r="C6">
         <f ca="1">RAND()</f>
-        <v>0.77822676831827</v>
+        <v>0.625921754938238</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1468,7 +1468,7 @@
       <c r="B7" s="1"/>
       <c r="C7">
         <f ca="1">RAND()</f>
-        <v>0.342772247897345</v>
+        <v>0.620340922583639</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1481,7 +1481,7 @@
       <c r="B8" s="1"/>
       <c r="C8">
         <f ca="1">RAND()</f>
-        <v>0.216520229210321</v>
+        <v>0.777177841357211</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -1494,7 +1494,7 @@
       <c r="B9" s="1"/>
       <c r="C9">
         <f ca="1">RAND()</f>
-        <v>0.436808540206176</v>
+        <v>0.304654867979719</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1507,7 +1507,7 @@
       <c r="B10" s="1"/>
       <c r="C10">
         <f ca="1">RAND()</f>
-        <v>0.468680898875224</v>
+        <v>0.583118803114618</v>
       </c>
       <c r="E10" t="s">
         <v>19</v>
@@ -1520,7 +1520,7 @@
       <c r="B11" s="1"/>
       <c r="C11">
         <f ca="1">RAND()</f>
-        <v>0.729310008224522</v>
+        <v>0.377816388643812</v>
       </c>
       <c r="E11" t="s">
         <v>21</v>
@@ -1533,7 +1533,7 @@
       <c r="B12" s="1"/>
       <c r="C12">
         <f ca="1">RAND()</f>
-        <v>0.525382727817908</v>
+        <v>0.175065430433678</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -1546,7 +1546,7 @@
       <c r="B13" s="1"/>
       <c r="C13">
         <f ca="1">RAND()</f>
-        <v>0.772104173108382</v>
+        <v>0.428422904025626</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>25</v>
@@ -1559,7 +1559,7 @@
       <c r="B14" s="1"/>
       <c r="C14">
         <f ca="1">RAND()</f>
-        <v>0.604587895805093</v>
+        <v>0.187398193403478</v>
       </c>
       <c r="E14" t="s">
         <v>27</v>
@@ -1572,7 +1572,7 @@
       <c r="B15" s="1"/>
       <c r="C15">
         <f ca="1">RAND()</f>
-        <v>0.752758197986069</v>
+        <v>0.959475339984172</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
@@ -1585,7 +1585,7 @@
       <c r="B16" s="1"/>
       <c r="C16">
         <f ca="1">RAND()</f>
-        <v>0.904375307735454</v>
+        <v>0.763711391428505</v>
       </c>
       <c r="E16" t="s">
         <v>31</v>
@@ -1598,7 +1598,7 @@
       <c r="B17" s="1"/>
       <c r="C17">
         <f ca="1">RAND()</f>
-        <v>0.737824263651946</v>
+        <v>0.0843635944251411</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -1611,7 +1611,7 @@
       <c r="B18" s="1"/>
       <c r="C18">
         <f ca="1">RAND()</f>
-        <v>0.829607460163979</v>
+        <v>0.974038112318109</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>35</v>
@@ -1624,7 +1624,7 @@
       <c r="B19" s="1"/>
       <c r="C19">
         <f ca="1">RAND()</f>
-        <v>0.711001249259142</v>
+        <v>0.179417535149675</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C20">
         <f ca="1">RAND()</f>
-        <v>0.777587974945301</v>
+        <v>0.455706860244535</v>
       </c>
       <c r="E20" t="s">
         <v>39</v>
@@ -1649,7 +1649,7 @@
       <c r="B21" s="1"/>
       <c r="C21">
         <f ca="1">RAND()</f>
-        <v>0.529496367913216</v>
+        <v>0.992005743726065</v>
       </c>
       <c r="E21" t="s">
         <v>41</v>
@@ -1662,7 +1662,7 @@
       <c r="B22" s="1"/>
       <c r="C22">
         <f ca="1">RAND()</f>
-        <v>0.121754887808994</v>
+        <v>0.0758986846388991</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
@@ -1675,7 +1675,7 @@
       <c r="B23" s="1"/>
       <c r="C23">
         <f ca="1">RAND()</f>
-        <v>0.296492852192161</v>
+        <v>0.719881884078458</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
@@ -1688,7 +1688,7 @@
       <c r="B24" s="1"/>
       <c r="C24">
         <f ca="1">RAND()</f>
-        <v>0.525980106720801</v>
+        <v>0.554274362081197</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>47</v>
@@ -1701,7 +1701,7 @@
       <c r="B25" s="1"/>
       <c r="C25">
         <f ca="1">RAND()</f>
-        <v>0.653038398783468</v>
+        <v>0.124193609167877</v>
       </c>
       <c r="E25" t="s">
         <v>49</v>
@@ -1714,7 +1714,7 @@
       <c r="B26" s="1"/>
       <c r="C26">
         <f ca="1">RAND()</f>
-        <v>0.593273160980325</v>
+        <v>0.642503080743504</v>
       </c>
       <c r="E26" t="s">
         <v>51</v>
@@ -1727,7 +1727,7 @@
       <c r="B27" s="1"/>
       <c r="C27">
         <f ca="1">RAND()</f>
-        <v>0.0702148109639014</v>
+        <v>0.188566393602384</v>
       </c>
       <c r="E27" t="s">
         <v>53</v>
@@ -1740,7 +1740,7 @@
       <c r="B28" s="1"/>
       <c r="C28">
         <f ca="1">RAND()</f>
-        <v>0.576420255183994</v>
+        <v>0.163215922625146</v>
       </c>
       <c r="E28" t="s">
         <v>55</v>
@@ -1753,7 +1753,7 @@
       <c r="B29" s="1"/>
       <c r="C29">
         <f ca="1">RAND()</f>
-        <v>0.414377925814713</v>
+        <v>0.233209496900635</v>
       </c>
       <c r="E29" t="s">
         <v>57</v>
@@ -1766,7 +1766,7 @@
       <c r="B30" s="1"/>
       <c r="C30">
         <f ca="1">RAND()</f>
-        <v>0.295129958920771</v>
+        <v>0.0475937362324352</v>
       </c>
       <c r="E30" t="s">
         <v>59</v>
@@ -1779,7 +1779,7 @@
       <c r="B31" s="1"/>
       <c r="C31">
         <f ca="1">RAND()</f>
-        <v>0.142448099377663</v>
+        <v>0.785970647533089</v>
       </c>
       <c r="E31" t="s">
         <v>61</v>
@@ -1792,7 +1792,7 @@
       <c r="B32" s="1"/>
       <c r="C32">
         <f ca="1">RAND()</f>
-        <v>0.496878424818762</v>
+        <v>0.401342108536344</v>
       </c>
       <c r="E32" t="s">
         <v>49</v>
@@ -1805,7 +1805,7 @@
       <c r="B33" s="1"/>
       <c r="C33">
         <f ca="1">RAND()</f>
-        <v>0.148335206770835</v>
+        <v>0.0911631366561816</v>
       </c>
       <c r="E33" t="s">
         <v>64</v>
@@ -1818,7 +1818,7 @@
       <c r="B34" s="1"/>
       <c r="C34">
         <f ca="1">RAND()</f>
-        <v>0.222686647615205</v>
+        <v>0.557849574117657</v>
       </c>
       <c r="E34" t="s">
         <v>66</v>
@@ -1831,7 +1831,7 @@
       <c r="B35" s="1"/>
       <c r="C35">
         <f ca="1">RAND()</f>
-        <v>0.529922852831757</v>
+        <v>0.987158827481559</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>68</v>
@@ -1844,7 +1844,7 @@
       <c r="B36" s="1"/>
       <c r="C36">
         <f ca="1" t="shared" ref="C36:C61" si="1">RAND()</f>
-        <v>0.359354827016707</v>
+        <v>0.852242352698617</v>
       </c>
       <c r="E36" t="s">
         <v>70</v>
@@ -1857,7 +1857,7 @@
       <c r="B37" s="1"/>
       <c r="C37">
         <f ca="1">RAND()</f>
-        <v>0.295147350782133</v>
+        <v>0.505368017976259</v>
       </c>
       <c r="E37" t="s">
         <v>72</v>
@@ -1870,7 +1870,7 @@
       <c r="B38" s="1"/>
       <c r="C38">
         <f ca="1">RAND()</f>
-        <v>0.663028048101259</v>
+        <v>0.627187039112366</v>
       </c>
       <c r="E38" t="s">
         <v>74</v>
@@ -1883,7 +1883,7 @@
       <c r="B39" s="1"/>
       <c r="C39">
         <f ca="1">RAND()</f>
-        <v>0.555696637649379</v>
+        <v>0.45238775344041</v>
       </c>
       <c r="E39" t="s">
         <v>76</v>
@@ -1896,7 +1896,7 @@
       <c r="B40" s="1"/>
       <c r="C40">
         <f ca="1">RAND()</f>
-        <v>0.525987765896448</v>
+        <v>0.908755509427831</v>
       </c>
       <c r="E40" t="s">
         <v>78</v>
@@ -1909,7 +1909,7 @@
       <c r="B41" s="1"/>
       <c r="C41">
         <f ca="1">RAND()</f>
-        <v>0.316174549090477</v>
+        <v>0.0206155296150972</v>
       </c>
       <c r="E41" t="s">
         <v>80</v>
@@ -1922,7 +1922,7 @@
       <c r="B42" s="1"/>
       <c r="C42">
         <f ca="1">RAND()</f>
-        <v>0.645305307959088</v>
+        <v>0.274045435933406</v>
       </c>
       <c r="E42" t="s">
         <v>82</v>
@@ -1935,7 +1935,7 @@
       <c r="B43" s="1"/>
       <c r="C43">
         <f ca="1">RAND()</f>
-        <v>0.400997174392206</v>
+        <v>0.998648316976585</v>
       </c>
     </row>
     <row r="44" ht="18.75" spans="1:5">
@@ -1945,7 +1945,7 @@
       <c r="B44" s="1"/>
       <c r="C44">
         <f ca="1">RAND()</f>
-        <v>0.0253748124124216</v>
+        <v>0.764432031478257</v>
       </c>
       <c r="E44" t="s">
         <v>85</v>
@@ -1958,7 +1958,7 @@
       <c r="B45" s="1"/>
       <c r="C45">
         <f ca="1">RAND()</f>
-        <v>0.512967671214521</v>
+        <v>0.0946610013001141</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>87</v>
@@ -1971,7 +1971,7 @@
       <c r="B46" s="1"/>
       <c r="C46">
         <f ca="1">RAND()</f>
-        <v>0.0182124109474009</v>
+        <v>0.502183004124387</v>
       </c>
       <c r="E46" t="s">
         <v>89</v>
@@ -1984,7 +1984,7 @@
       <c r="B47" s="1"/>
       <c r="C47">
         <f ca="1">RAND()</f>
-        <v>0.847704633128686</v>
+        <v>0.143194175924362</v>
       </c>
       <c r="E47" t="s">
         <v>91</v>
@@ -1997,7 +1997,7 @@
       <c r="B48" s="1"/>
       <c r="C48">
         <f ca="1">RAND()</f>
-        <v>0.263251824935499</v>
+        <v>0.83944271756535</v>
       </c>
       <c r="E48" t="s">
         <v>93</v>
@@ -2010,7 +2010,7 @@
       <c r="B49" s="1"/>
       <c r="C49">
         <f ca="1">RAND()</f>
-        <v>0.818341633359671</v>
+        <v>0.259137059613433</v>
       </c>
       <c r="E49" t="s">
         <v>95</v>
@@ -2023,7 +2023,7 @@
       <c r="B50" s="1"/>
       <c r="C50">
         <f ca="1">RAND()</f>
-        <v>0.292998329839397</v>
+        <v>0.389355338564642</v>
       </c>
       <c r="E50" t="s">
         <v>97</v>
@@ -2036,7 +2036,7 @@
       <c r="B51" s="1"/>
       <c r="C51">
         <f ca="1">RAND()</f>
-        <v>0.143053543706387</v>
+        <v>0.500383008959506</v>
       </c>
       <c r="E51" t="s">
         <v>99</v>
@@ -2049,7 +2049,7 @@
       <c r="B52" s="1"/>
       <c r="C52">
         <f ca="1">RAND()</f>
-        <v>0.461035224353377</v>
+        <v>0.694861902004439</v>
       </c>
       <c r="E52" t="s">
         <v>101</v>
@@ -2062,7 +2062,7 @@
       <c r="B53" s="1"/>
       <c r="C53">
         <f ca="1">RAND()</f>
-        <v>0.606565065400084</v>
+        <v>0.622382436200233</v>
       </c>
       <c r="E53" t="s">
         <v>103</v>
@@ -2075,7 +2075,7 @@
       <c r="B54" s="1"/>
       <c r="C54">
         <f ca="1">RAND()</f>
-        <v>0.340121045367762</v>
+        <v>0.101630864612894</v>
       </c>
       <c r="E54" t="s">
         <v>105</v>
@@ -2088,7 +2088,7 @@
       <c r="B55" s="1"/>
       <c r="C55">
         <f ca="1">RAND()</f>
-        <v>0.435837188391298</v>
+        <v>0.0181323807352929</v>
       </c>
       <c r="E55" t="s">
         <v>107</v>
@@ -2101,7 +2101,7 @@
       <c r="B56" s="1"/>
       <c r="C56">
         <f ca="1">RAND()</f>
-        <v>0.0306973898522114</v>
+        <v>0.420032186394782</v>
       </c>
       <c r="E56" t="s">
         <v>109</v>
@@ -2114,7 +2114,7 @@
       <c r="B57" s="1"/>
       <c r="C57">
         <f ca="1">RAND()</f>
-        <v>0.285040684704224</v>
+        <v>0.156667564241612</v>
       </c>
       <c r="E57" t="s">
         <v>111</v>
@@ -2127,7 +2127,7 @@
       <c r="B58" s="1"/>
       <c r="C58">
         <f ca="1">RAND()</f>
-        <v>0.558777808675476</v>
+        <v>0.639937525857886</v>
       </c>
       <c r="E58" t="s">
         <v>113</v>
@@ -2140,7 +2140,7 @@
       <c r="B59" s="1"/>
       <c r="C59">
         <f ca="1">RAND()</f>
-        <v>0.277414058003924</v>
+        <v>0.0798022236987359</v>
       </c>
       <c r="E59" t="s">
         <v>115</v>
@@ -2153,7 +2153,7 @@
       <c r="B60" s="1"/>
       <c r="C60">
         <f ca="1">RAND()</f>
-        <v>0.574601016087369</v>
+        <v>0.494617514316228</v>
       </c>
       <c r="E60" t="s">
         <v>117</v>
@@ -2166,7 +2166,7 @@
       <c r="B61" s="1"/>
       <c r="C61">
         <f ca="1">RAND()</f>
-        <v>0.603688904573486</v>
+        <v>0.887505556112333</v>
       </c>
       <c r="E61" t="s">
         <v>119</v>
@@ -2179,7 +2179,7 @@
       <c r="B62" s="1"/>
       <c r="C62">
         <f ca="1" t="shared" ref="C62:C125" si="2">RAND()</f>
-        <v>0.501788523142334</v>
+        <v>0.0882773771254606</v>
       </c>
       <c r="E62" t="s">
         <v>121</v>
@@ -2192,7 +2192,7 @@
       <c r="B63" s="1"/>
       <c r="C63">
         <f ca="1">RAND()</f>
-        <v>0.355244018668613</v>
+        <v>0.870941493819715</v>
       </c>
       <c r="E63" t="s">
         <v>123</v>
@@ -2205,7 +2205,7 @@
       <c r="B64" s="1"/>
       <c r="C64">
         <f ca="1">RAND()</f>
-        <v>0.509709235893907</v>
+        <v>0.482179740339147</v>
       </c>
       <c r="E64" t="s">
         <v>125</v>
@@ -2218,7 +2218,7 @@
       <c r="B65" s="1"/>
       <c r="C65">
         <f ca="1">RAND()</f>
-        <v>0.0942413246153815</v>
+        <v>0.475883477725323</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>127</v>
@@ -2231,7 +2231,7 @@
       <c r="B66" s="1"/>
       <c r="C66">
         <f ca="1">RAND()</f>
-        <v>0.647608359211798</v>
+        <v>0.80312357495927</v>
       </c>
       <c r="E66" t="s">
         <v>129</v>
@@ -2244,7 +2244,7 @@
       <c r="B67" s="1"/>
       <c r="C67">
         <f ca="1">RAND()</f>
-        <v>0.324103616856251</v>
+        <v>0.228941093894634</v>
       </c>
       <c r="E67" t="s">
         <v>131</v>
@@ -2257,7 +2257,7 @@
       <c r="B68" s="1"/>
       <c r="C68">
         <f ca="1">RAND()</f>
-        <v>0.370086539400398</v>
+        <v>0.727967824655762</v>
       </c>
       <c r="E68" t="s">
         <v>133</v>
@@ -2270,7 +2270,7 @@
       <c r="B69" s="1"/>
       <c r="C69">
         <f ca="1">RAND()</f>
-        <v>0.709100168211398</v>
+        <v>0.484510107587018</v>
       </c>
       <c r="E69" t="s">
         <v>135</v>
@@ -2283,7 +2283,7 @@
       <c r="B70" s="1"/>
       <c r="C70">
         <f ca="1">RAND()</f>
-        <v>0.520231859107347</v>
+        <v>0.667177644147295</v>
       </c>
       <c r="E70" t="s">
         <v>137</v>
@@ -2296,7 +2296,7 @@
       <c r="B71" s="1"/>
       <c r="C71">
         <f ca="1">RAND()</f>
-        <v>0.994708805658214</v>
+        <v>0.881106457453064</v>
       </c>
       <c r="E71" t="s">
         <v>139</v>
@@ -2309,7 +2309,7 @@
       <c r="B72" s="1"/>
       <c r="C72">
         <f ca="1">RAND()</f>
-        <v>0.299702322881378</v>
+        <v>0.574940946725403</v>
       </c>
       <c r="E72" t="s">
         <v>141</v>
@@ -2322,7 +2322,7 @@
       <c r="B73" s="1"/>
       <c r="C73">
         <f ca="1">RAND()</f>
-        <v>0.996235148587794</v>
+        <v>0.249578423954459</v>
       </c>
       <c r="E73" t="s">
         <v>143</v>
@@ -2335,7 +2335,7 @@
       <c r="B74" s="1"/>
       <c r="C74">
         <f ca="1">RAND()</f>
-        <v>0.46379476327516</v>
+        <v>0.580360923565817</v>
       </c>
       <c r="E74" t="s">
         <v>145</v>
@@ -2348,7 +2348,7 @@
       <c r="B75" s="1"/>
       <c r="C75">
         <f ca="1">RAND()</f>
-        <v>0.214522614697644</v>
+        <v>0.746131791229148</v>
       </c>
       <c r="E75" t="s">
         <v>147</v>
@@ -2361,7 +2361,7 @@
       <c r="B76" s="1"/>
       <c r="C76">
         <f ca="1">RAND()</f>
-        <v>0.80627711522889</v>
+        <v>0.26459393809814</v>
       </c>
       <c r="E76" t="s">
         <v>149</v>
@@ -2374,7 +2374,7 @@
       <c r="B77" s="1"/>
       <c r="C77">
         <f ca="1">RAND()</f>
-        <v>0.400851778694053</v>
+        <v>0.613015330771284</v>
       </c>
       <c r="E77" t="s">
         <v>151</v>
@@ -2387,7 +2387,7 @@
       <c r="B78" s="1"/>
       <c r="C78">
         <f ca="1">RAND()</f>
-        <v>0.155714195914892</v>
+        <v>0.296150398073506</v>
       </c>
       <c r="E78" t="s">
         <v>153</v>
@@ -2400,7 +2400,7 @@
       <c r="B79" s="1"/>
       <c r="C79">
         <f ca="1">RAND()</f>
-        <v>0.567292078602312</v>
+        <v>0.398484334941223</v>
       </c>
       <c r="E79" t="s">
         <v>155</v>
@@ -2413,7 +2413,7 @@
       <c r="B80" s="1"/>
       <c r="C80">
         <f ca="1">RAND()</f>
-        <v>0.790550278388358</v>
+        <v>0.989858058934525</v>
       </c>
       <c r="E80" t="s">
         <v>157</v>
@@ -2426,7 +2426,7 @@
       <c r="B81" s="1"/>
       <c r="C81">
         <f ca="1">RAND()</f>
-        <v>0.089991424934218</v>
+        <v>0.090197134231472</v>
       </c>
       <c r="E81" t="s">
         <v>159</v>
@@ -2439,7 +2439,7 @@
       <c r="B82" s="1"/>
       <c r="C82">
         <f ca="1">RAND()</f>
-        <v>0.235304866438284</v>
+        <v>0.400255520909194</v>
       </c>
       <c r="E82" t="s">
         <v>161</v>
@@ -2452,7 +2452,7 @@
       <c r="B83" s="1"/>
       <c r="C83">
         <f ca="1">RAND()</f>
-        <v>0.807950135212799</v>
+        <v>0.516646016236721</v>
       </c>
       <c r="E83" t="s">
         <v>163</v>
@@ -2465,7 +2465,7 @@
       <c r="B84" s="1"/>
       <c r="C84">
         <f ca="1">RAND()</f>
-        <v>0.608549459175162</v>
+        <v>0.320690387706552</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>165</v>
@@ -2478,7 +2478,7 @@
       <c r="B85" s="1"/>
       <c r="C85">
         <f ca="1">RAND()</f>
-        <v>0.446332034024675</v>
+        <v>0.081818536747974</v>
       </c>
       <c r="E85" t="s">
         <v>167</v>
@@ -2491,7 +2491,7 @@
       <c r="B86" s="1"/>
       <c r="C86">
         <f ca="1">RAND()</f>
-        <v>0.337596155421987</v>
+        <v>0.741972587312979</v>
       </c>
       <c r="E86" t="s">
         <v>169</v>
@@ -2504,7 +2504,7 @@
       <c r="B87" s="1"/>
       <c r="C87">
         <f ca="1">RAND()</f>
-        <v>0.069636354410852</v>
+        <v>0.215785069248078</v>
       </c>
       <c r="E87" t="s">
         <v>171</v>
@@ -2517,7 +2517,7 @@
       <c r="B88" s="1"/>
       <c r="C88">
         <f ca="1">RAND()</f>
-        <v>0.466051797844677</v>
+        <v>0.850493490601792</v>
       </c>
       <c r="E88" t="s">
         <v>173</v>
@@ -2530,7 +2530,7 @@
       <c r="B89" s="1"/>
       <c r="C89">
         <f ca="1">RAND()</f>
-        <v>0.768524681660048</v>
+        <v>0.765504329678622</v>
       </c>
       <c r="E89" t="s">
         <v>175</v>
@@ -2543,7 +2543,7 @@
       <c r="B90" s="1"/>
       <c r="C90">
         <f ca="1">RAND()</f>
-        <v>0.195974232799152</v>
+        <v>0.528514387312192</v>
       </c>
       <c r="E90" t="s">
         <v>177</v>
@@ -2556,7 +2556,7 @@
       <c r="B91" s="1"/>
       <c r="C91">
         <f ca="1">RAND()</f>
-        <v>0.930677368145514</v>
+        <v>0.258792045363745</v>
       </c>
       <c r="E91" t="s">
         <v>179</v>
@@ -2569,7 +2569,7 @@
       <c r="B92" s="1"/>
       <c r="C92">
         <f ca="1">RAND()</f>
-        <v>0.85606937995186</v>
+        <v>0.0298911962335864</v>
       </c>
       <c r="E92" t="s">
         <v>181</v>
@@ -2582,7 +2582,7 @@
       <c r="B93" s="1"/>
       <c r="C93">
         <f ca="1">RAND()</f>
-        <v>0.669438355517228</v>
+        <v>0.571497506423828</v>
       </c>
       <c r="E93" t="s">
         <v>183</v>
@@ -2595,7 +2595,7 @@
       <c r="B94" s="1"/>
       <c r="C94">
         <f ca="1">RAND()</f>
-        <v>0.478606521602235</v>
+        <v>0.332574456374787</v>
       </c>
       <c r="E94" t="s">
         <v>185</v>
@@ -2608,7 +2608,7 @@
       <c r="B95" s="1"/>
       <c r="C95">
         <f ca="1">RAND()</f>
-        <v>0.00530774512512289</v>
+        <v>0.894006254440725</v>
       </c>
       <c r="E95" t="s">
         <v>187</v>
@@ -2621,7 +2621,7 @@
       <c r="B96" s="1"/>
       <c r="C96">
         <f ca="1">RAND()</f>
-        <v>0.0612230758053878</v>
+        <v>0.404862785662157</v>
       </c>
       <c r="E96" t="s">
         <v>189</v>
@@ -2634,7 +2634,7 @@
       <c r="B97" s="1"/>
       <c r="C97">
         <f ca="1">RAND()</f>
-        <v>0.228469258693108</v>
+        <v>0.463737339384726</v>
       </c>
       <c r="E97" t="s">
         <v>191</v>
@@ -2647,7 +2647,7 @@
       <c r="B98" s="1"/>
       <c r="C98">
         <f ca="1">RAND()</f>
-        <v>0.435458055467845</v>
+        <v>0.380247150034158</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>193</v>
@@ -2660,7 +2660,7 @@
       <c r="B99" s="1"/>
       <c r="C99">
         <f ca="1">RAND()</f>
-        <v>0.251401810292113</v>
+        <v>0.194724417531994</v>
       </c>
       <c r="E99" t="s">
         <v>195</v>
@@ -2673,7 +2673,7 @@
       <c r="B100" s="1"/>
       <c r="C100">
         <f ca="1">RAND()</f>
-        <v>0.515278186477425</v>
+        <v>0.494640278075456</v>
       </c>
       <c r="E100" t="s">
         <v>197</v>
@@ -2686,7 +2686,7 @@
       <c r="B101" s="1"/>
       <c r="C101">
         <f ca="1">RAND()</f>
-        <v>0.330040102495616</v>
+        <v>0.488192252936938</v>
       </c>
       <c r="E101" t="s">
         <v>199</v>
@@ -2699,7 +2699,7 @@
       <c r="B102" s="1"/>
       <c r="C102">
         <f ca="1">RAND()</f>
-        <v>0.926500738970061</v>
+        <v>0.788664559077903</v>
       </c>
       <c r="E102" t="s">
         <v>201</v>
@@ -2712,7 +2712,7 @@
       <c r="B103" s="1"/>
       <c r="C103">
         <f ca="1">RAND()</f>
-        <v>0.783269905720473</v>
+        <v>0.170929178573824</v>
       </c>
       <c r="E103" t="s">
         <v>203</v>
@@ -2725,7 +2725,7 @@
       <c r="B104" s="1"/>
       <c r="C104">
         <f ca="1">RAND()</f>
-        <v>0.420078330123043</v>
+        <v>0.0668046087061871</v>
       </c>
       <c r="E104" t="s">
         <v>205</v>
@@ -2738,7 +2738,7 @@
       <c r="B105" s="1"/>
       <c r="C105">
         <f ca="1">RAND()</f>
-        <v>0.522226140802288</v>
+        <v>0.0699588104718223</v>
       </c>
       <c r="E105" t="s">
         <v>207</v>
@@ -2751,7 +2751,7 @@
       <c r="B106" s="1"/>
       <c r="C106">
         <f ca="1">RAND()</f>
-        <v>0.806401166919734</v>
+        <v>0.0865389361308031</v>
       </c>
       <c r="E106" t="s">
         <v>209</v>
@@ -2764,7 +2764,7 @@
       <c r="B107" s="1"/>
       <c r="C107">
         <f ca="1">RAND()</f>
-        <v>0.0549425508479597</v>
+        <v>0.216316066279321</v>
       </c>
       <c r="E107" t="s">
         <v>211</v>
@@ -2777,7 +2777,7 @@
       <c r="B108" s="1"/>
       <c r="C108">
         <f ca="1">RAND()</f>
-        <v>0.467650121689527</v>
+        <v>0.717536457242394</v>
       </c>
       <c r="E108" t="s">
         <v>213</v>
@@ -2790,7 +2790,7 @@
       <c r="B109" s="1"/>
       <c r="C109">
         <f ca="1">RAND()</f>
-        <v>0.72189667342618</v>
+        <v>0.051644617255425</v>
       </c>
       <c r="E109" t="s">
         <v>215</v>
@@ -2803,7 +2803,7 @@
       <c r="B110" s="1"/>
       <c r="C110">
         <f ca="1">RAND()</f>
-        <v>0.0443616613730942</v>
+        <v>0.37157553501232</v>
       </c>
       <c r="E110" t="s">
         <v>217</v>
@@ -2816,7 +2816,7 @@
       <c r="B111" s="1"/>
       <c r="C111">
         <f ca="1">RAND()</f>
-        <v>0.916670563439549</v>
+        <v>0.838102320877977</v>
       </c>
       <c r="E111" t="s">
         <v>219</v>
@@ -2829,7 +2829,7 @@
       <c r="B112" s="1"/>
       <c r="C112">
         <f ca="1">RAND()</f>
-        <v>0.633436421181436</v>
+        <v>0.588024291312102</v>
       </c>
       <c r="E112" t="s">
         <v>221</v>
@@ -2842,7 +2842,7 @@
       <c r="B113" s="1"/>
       <c r="C113">
         <f ca="1">RAND()</f>
-        <v>0.033518566080307</v>
+        <v>0.474804618350431</v>
       </c>
       <c r="E113" t="s">
         <v>223</v>
@@ -2855,7 +2855,7 @@
       <c r="B114" s="1"/>
       <c r="C114">
         <f ca="1">RAND()</f>
-        <v>0.0625358289244207</v>
+        <v>0.961813469439162</v>
       </c>
       <c r="E114" t="s">
         <v>225</v>
@@ -2868,7 +2868,7 @@
       <c r="B115" s="1"/>
       <c r="C115">
         <f ca="1">RAND()</f>
-        <v>0.952691280860509</v>
+        <v>0.713842253487419</v>
       </c>
       <c r="E115" t="s">
         <v>227</v>
@@ -2881,7 +2881,7 @@
       <c r="B116" s="1"/>
       <c r="C116">
         <f ca="1">RAND()</f>
-        <v>0.298493534612744</v>
+        <v>0.00541806826172064</v>
       </c>
       <c r="E116" t="s">
         <v>229</v>
@@ -2894,7 +2894,7 @@
       <c r="B117" s="1"/>
       <c r="C117">
         <f ca="1">RAND()</f>
-        <v>0.584857537293239</v>
+        <v>0.424662539116473</v>
       </c>
       <c r="E117" t="s">
         <v>231</v>
@@ -2907,7 +2907,7 @@
       <c r="B118" s="1"/>
       <c r="C118">
         <f ca="1">RAND()</f>
-        <v>0.661302449734166</v>
+        <v>0.251323608808071</v>
       </c>
       <c r="E118" t="s">
         <v>233</v>
@@ -2920,7 +2920,7 @@
       <c r="B119" s="1"/>
       <c r="C119">
         <f ca="1">RAND()</f>
-        <v>0.613633003621431</v>
+        <v>0.591836230648083</v>
       </c>
       <c r="E119" t="s">
         <v>235</v>
@@ -2933,7 +2933,7 @@
       <c r="B120" s="1"/>
       <c r="C120">
         <f ca="1">RAND()</f>
-        <v>0.214546341440566</v>
+        <v>0.0975693001402234</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>237</v>
@@ -2946,7 +2946,7 @@
       <c r="B121" s="1"/>
       <c r="C121">
         <f ca="1">RAND()</f>
-        <v>0.578625629333445</v>
+        <v>0.981851470458185</v>
       </c>
       <c r="E121" t="s">
         <v>239</v>
@@ -2959,7 +2959,7 @@
       <c r="B122" s="1"/>
       <c r="C122">
         <f ca="1">RAND()</f>
-        <v>0.721257807816923</v>
+        <v>0.487014670699929</v>
       </c>
       <c r="E122" t="s">
         <v>241</v>
@@ -2972,7 +2972,7 @@
       <c r="B123" s="1"/>
       <c r="C123">
         <f ca="1">RAND()</f>
-        <v>0.706727275073891</v>
+        <v>0.226235110176517</v>
       </c>
       <c r="E123" t="s">
         <v>243</v>
@@ -2985,7 +2985,7 @@
       <c r="B124" s="1"/>
       <c r="C124">
         <f ca="1">RAND()</f>
-        <v>0.00898860176772476</v>
+        <v>0.474056932260563</v>
       </c>
       <c r="E124" t="s">
         <v>245</v>
@@ -2998,7 +2998,7 @@
       <c r="B125" s="1"/>
       <c r="C125">
         <f ca="1">RAND()</f>
-        <v>0.0125021093158781</v>
+        <v>0.663975996109225</v>
       </c>
       <c r="E125" t="s">
         <v>247</v>
@@ -3011,7 +3011,7 @@
       <c r="B126" s="1"/>
       <c r="C126">
         <f ca="1">RAND()</f>
-        <v>0.912586468812666</v>
+        <v>0.00169232111615281</v>
       </c>
       <c r="E126" t="s">
         <v>249</v>
@@ -3024,7 +3024,7 @@
       <c r="B127" s="1"/>
       <c r="C127">
         <f ca="1">RAND()</f>
-        <v>0.923260072351493</v>
+        <v>0.749326930763613</v>
       </c>
       <c r="E127" t="s">
         <v>251</v>
@@ -3037,7 +3037,7 @@
       <c r="B128" s="1"/>
       <c r="C128">
         <f ca="1" t="shared" ref="C128:C164" si="3">RAND()</f>
-        <v>0.835673951429768</v>
+        <v>0.834473488742068</v>
       </c>
       <c r="E128" t="s">
         <v>253</v>
@@ -3050,7 +3050,7 @@
       <c r="B129" s="1"/>
       <c r="C129">
         <f ca="1">RAND()</f>
-        <v>0.925610497656268</v>
+        <v>0.430646419363291</v>
       </c>
       <c r="E129" t="s">
         <v>255</v>
@@ -3063,7 +3063,7 @@
       <c r="B130" s="1"/>
       <c r="C130">
         <f ca="1">RAND()</f>
-        <v>0.117355427845266</v>
+        <v>0.826039104077854</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>257</v>
@@ -3076,7 +3076,7 @@
       <c r="B131" s="1"/>
       <c r="C131">
         <f ca="1">RAND()</f>
-        <v>0.559465535153473</v>
+        <v>0.541027627999784</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>259</v>
@@ -3089,7 +3089,7 @@
       <c r="B132" s="1"/>
       <c r="C132">
         <f ca="1">RAND()</f>
-        <v>0.0437733262156832</v>
+        <v>0.0302922540278756</v>
       </c>
       <c r="E132" t="s">
         <v>261</v>
@@ -3102,7 +3102,7 @@
       <c r="B133" s="1"/>
       <c r="C133">
         <f ca="1">RAND()</f>
-        <v>0.20174917666569</v>
+        <v>0.417586678661442</v>
       </c>
       <c r="E133" t="s">
         <v>263</v>
@@ -3115,7 +3115,7 @@
       <c r="B134" s="1"/>
       <c r="C134">
         <f ca="1">RAND()</f>
-        <v>0.199955636604727</v>
+        <v>0.196875821345338</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>265</v>
@@ -3128,7 +3128,7 @@
       <c r="B135" s="1"/>
       <c r="C135">
         <f ca="1">RAND()</f>
-        <v>0.663456515183502</v>
+        <v>0.420226455537576</v>
       </c>
       <c r="E135" t="s">
         <v>267</v>
@@ -3141,7 +3141,7 @@
       <c r="B136" s="1"/>
       <c r="C136">
         <f ca="1">RAND()</f>
-        <v>0.958155118209414</v>
+        <v>0.362201116244124</v>
       </c>
       <c r="E136" t="s">
         <v>269</v>
@@ -3154,7 +3154,7 @@
       <c r="B137" s="1"/>
       <c r="C137">
         <f ca="1">RAND()</f>
-        <v>0.633786496818308</v>
+        <v>0.270155021624183</v>
       </c>
       <c r="E137" t="s">
         <v>271</v>
@@ -3167,7 +3167,7 @@
       <c r="B138" s="1"/>
       <c r="C138">
         <f ca="1">RAND()</f>
-        <v>0.167000911454133</v>
+        <v>0.238666958141737</v>
       </c>
       <c r="E138" t="s">
         <v>273</v>
@@ -3180,7 +3180,7 @@
       <c r="B139" s="1"/>
       <c r="C139">
         <f ca="1">RAND()</f>
-        <v>0.925729915064764</v>
+        <v>0.605596522766705</v>
       </c>
       <c r="E139" t="s">
         <v>275</v>
@@ -3193,7 +3193,7 @@
       <c r="B140" s="1"/>
       <c r="C140">
         <f ca="1">RAND()</f>
-        <v>0.202913482321704</v>
+        <v>0.720156022781249</v>
       </c>
       <c r="E140" t="s">
         <v>277</v>
@@ -3206,7 +3206,7 @@
       <c r="B141" s="1"/>
       <c r="C141">
         <f ca="1">RAND()</f>
-        <v>0.54864437697931</v>
+        <v>0.201418784945548</v>
       </c>
       <c r="E141" t="s">
         <v>279</v>
@@ -3219,7 +3219,7 @@
       <c r="B142" s="1"/>
       <c r="C142">
         <f ca="1">RAND()</f>
-        <v>0.82088839967605</v>
+        <v>0.453132822112883</v>
       </c>
       <c r="E142" t="s">
         <v>281</v>
@@ -3232,7 +3232,7 @@
       <c r="B143" s="1"/>
       <c r="C143">
         <f ca="1">RAND()</f>
-        <v>0.227823869086774</v>
+        <v>0.121573237076978</v>
       </c>
       <c r="E143" t="s">
         <v>283</v>
@@ -3245,7 +3245,7 @@
       <c r="B144" s="1"/>
       <c r="C144">
         <f ca="1">RAND()</f>
-        <v>0.894205614774684</v>
+        <v>0.583826529288988</v>
       </c>
       <c r="E144" t="s">
         <v>285</v>
@@ -3258,7 +3258,7 @@
       <c r="B145" s="1"/>
       <c r="C145">
         <f ca="1">RAND()</f>
-        <v>0.325427198369233</v>
+        <v>0.129710788430595</v>
       </c>
       <c r="E145" t="s">
         <v>287</v>
@@ -3271,7 +3271,7 @@
       <c r="B146" s="1"/>
       <c r="C146">
         <f ca="1">RAND()</f>
-        <v>0.744573435980944</v>
+        <v>0.636506499984639</v>
       </c>
       <c r="E146" t="s">
         <v>289</v>
@@ -3284,7 +3284,7 @@
       <c r="B147" s="1"/>
       <c r="C147">
         <f ca="1">RAND()</f>
-        <v>0.475108915837363</v>
+        <v>0.560222217455819</v>
       </c>
       <c r="E147" t="s">
         <v>291</v>
@@ -3297,7 +3297,7 @@
       <c r="B148" s="1"/>
       <c r="C148">
         <f ca="1">RAND()</f>
-        <v>0.675696108913397</v>
+        <v>0.483251483894083</v>
       </c>
       <c r="E148" t="s">
         <v>293</v>
@@ -3310,7 +3310,7 @@
       <c r="B149" s="1"/>
       <c r="C149">
         <f ca="1">RAND()</f>
-        <v>0.538984416547744</v>
+        <v>0.521389896069117</v>
       </c>
       <c r="E149" t="s">
         <v>295</v>
@@ -3323,7 +3323,7 @@
       <c r="B150" s="1"/>
       <c r="C150">
         <f ca="1">RAND()</f>
-        <v>0.700203878802221</v>
+        <v>0.829920415875372</v>
       </c>
       <c r="E150" t="s">
         <v>297</v>
@@ -3336,7 +3336,7 @@
       <c r="B151" s="1"/>
       <c r="C151">
         <f ca="1">RAND()</f>
-        <v>0.380605110406314</v>
+        <v>0.788968217481183</v>
       </c>
       <c r="E151" t="s">
         <v>299</v>
@@ -3349,7 +3349,7 @@
       <c r="B152" s="1"/>
       <c r="C152">
         <f ca="1">RAND()</f>
-        <v>0.810306967096394</v>
+        <v>0.481916386591146</v>
       </c>
       <c r="E152" t="s">
         <v>301</v>
@@ -3362,7 +3362,7 @@
       <c r="B153" s="1"/>
       <c r="C153">
         <f ca="1">RAND()</f>
-        <v>0.686361568489177</v>
+        <v>0.336876709739232</v>
       </c>
       <c r="E153" t="s">
         <v>303</v>
@@ -3375,7 +3375,7 @@
       <c r="B154" s="1"/>
       <c r="C154">
         <f ca="1">RAND()</f>
-        <v>0.236976073120134</v>
+        <v>0.863289646411494</v>
       </c>
       <c r="E154" t="s">
         <v>305</v>
@@ -3388,7 +3388,7 @@
       <c r="B155" s="1"/>
       <c r="C155">
         <f ca="1">RAND()</f>
-        <v>0.910777613323672</v>
+        <v>0.329563467860535</v>
       </c>
       <c r="E155" t="s">
         <v>307</v>
@@ -3401,7 +3401,7 @@
       <c r="B156" s="1"/>
       <c r="C156">
         <f ca="1">RAND()</f>
-        <v>0.740507658533986</v>
+        <v>0.585065401481353</v>
       </c>
       <c r="E156" t="s">
         <v>309</v>
@@ -3414,7 +3414,7 @@
       <c r="B157" s="1"/>
       <c r="C157">
         <f ca="1">RAND()</f>
-        <v>0.116234446389868</v>
+        <v>0.867256161338832</v>
       </c>
       <c r="E157" t="s">
         <v>311</v>
